--- a/016_Kompetenzen_Einschätzung_LN.xlsx
+++ b/016_Kompetenzen_Einschätzung_LN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3198CF5-809C-4D47-A00F-1C0F198385B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7393CD4-5D78-4F16-9F58-F251998F7255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="11" t="str">
-        <f t="shared" ref="E11:E14" si="1">IF(F12&gt;0,"d","")</f>
+        <f t="shared" ref="E12:E14" si="1">IF(F12&gt;0,"d","")</f>
         <v>d</v>
       </c>
       <c r="F12" s="12">
@@ -1170,7 +1170,7 @@
         <v>d</v>
       </c>
       <c r="F13" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>d</v>
       </c>
       <c r="F14" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="12">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>d</v>
       </c>
       <c r="F16" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="12">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>d</v>
       </c>
       <c r="F20" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>d</v>
       </c>
       <c r="F22" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="12">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>d</v>
       </c>
       <c r="F23" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>d</v>
       </c>
       <c r="F26" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="12">
         <v>2</v>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="F34" s="19">
         <f t="shared" si="13"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -1844,7 +1844,7 @@
       <c r="D39" s="19"/>
       <c r="F39" s="19">
         <f>F34</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -1905,7 +1905,7 @@
       <c r="D44" s="19"/>
       <c r="F44" s="22">
         <f>IF(D34&gt;0,ROUND(5/D34*F39+1,1),1)</f>
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -1929,13 +1929,13 @@
       </c>
       <c r="C46" s="23">
         <f>5/F38*F39+1</f>
-        <v>5.375</v>
+        <v>6</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="19"/>
       <c r="F46" s="24">
         <f>ROUND(C46*2,0)/2</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -2046,23 +2046,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="9fe67c4c-6226-4c98-a283-7487a51f7ff8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010008E419CAC84B4B46BD92325A374FBE2F" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c12f0f5e4fe463a1b81adfa21c4c4bf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9fe67c4c-6226-4c98-a283-7487a51f7ff8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8d3c74b95f1692f260daac07e6e489a" ns2:_="">
     <xsd:import namespace="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
@@ -2188,25 +2171,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98336791-4E20-427B-895D-90D9BDFDE8CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A740E6-F9EF-440B-A165-6794DF5CA118}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="9fe67c4c-6226-4c98-a283-7487a51f7ff8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790F794A-B6BA-4691-9EC9-98B8C55CEE01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2222,4 +2204,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A740E6-F9EF-440B-A165-6794DF5CA118}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98336791-4E20-427B-895D-90D9BDFDE8CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9fe67c4c-6226-4c98-a283-7487a51f7ff8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>